--- a/public/file/excel/excel-teacher.xlsx
+++ b/public/file/excel/excel-teacher.xlsx
@@ -522,11 +522,12 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="14.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
